--- a/outputfiles/Charts/Graphs/classTimes.xlsx
+++ b/outputfiles/Charts/Graphs/classTimes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\University\uol-inf co7506\Git\Assignment3\CodeAnalysisToolkit\outputfiles\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\University\uol-inf co7506\Git\Assignment3\CodeAnalysisToolkit\outputfiles\Charts\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3229,11 +3229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="339445824"/>
-        <c:axId val="339448176"/>
+        <c:axId val="338722952"/>
+        <c:axId val="338719424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="339445824"/>
+        <c:axId val="338722952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339448176"/>
+        <c:crossAx val="338719424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3284,7 +3284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339448176"/>
+        <c:axId val="338719424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339445824"/>
+        <c:crossAx val="338722952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3932,15 +3932,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14283</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5955,7 +5955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
